--- a/Codelist Excel Files and Conversion Templates to XML/grp-astmD2487.xlsx
+++ b/Codelist Excel Files and Conversion Templates to XML/grp-astmD2487.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dponti/GitHub/def/Codelist Excel Files and Conversion Templates to XML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF224C58-63B6-B742-A67D-04B218B11BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416D1E5-6715-DD49-AF31-8A6120B7E879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="35840" windowHeight="19920" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="42700" windowHeight="22920" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DictionaryName" sheetId="3" r:id="rId1"/>
@@ -905,10 +905,10 @@
     <t>Well-graded sand with silt</t>
   </si>
   <si>
-    <t>//diggs:Lithology/diggs:classificationCode</t>
-  </si>
-  <si>
     <t>grp-astmD2487</t>
+  </si>
+  <si>
+    <t>//diggs:Lithology/diggs:classificationSymbol</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
         <v>233</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>234</v>
@@ -1750,7 +1750,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
@@ -2431,9 +2431,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2467,7 +2467,7 @@
         <v>236</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2479,7 +2479,7 @@
         <v>240</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2491,7 +2491,7 @@
         <v>242</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2503,7 +2503,7 @@
         <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
         <v>246</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2527,7 +2527,7 @@
         <v>248</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2539,7 +2539,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2551,7 +2551,7 @@
         <v>252</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2563,7 +2563,7 @@
         <v>254</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2575,7 +2575,7 @@
         <v>256</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2587,7 +2587,7 @@
         <v>258</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2599,7 +2599,7 @@
         <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2611,7 +2611,7 @@
         <v>262</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2623,7 +2623,7 @@
         <v>264</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -2635,7 +2635,7 @@
         <v>266</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2647,7 +2647,7 @@
         <v>268</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2659,7 +2659,7 @@
         <v>269</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2671,7 +2671,7 @@
         <v>271</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
         <v>273</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2695,7 +2695,7 @@
         <v>275</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2707,7 +2707,7 @@
         <v>277</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2719,7 +2719,7 @@
         <v>279</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2731,7 +2731,7 @@
         <v>281</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2743,7 +2743,7 @@
         <v>283</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2755,7 +2755,7 @@
         <v>285</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -2767,7 +2767,7 @@
         <v>287</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
